--- a/RDDT.xlsx
+++ b/RDDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421F250-6CB0-44D2-970E-BE42148B150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135BC666-95B6-4E95-A951-0F82F173ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{EEF2F3ED-6103-4FFF-8F02-B08006034FA8}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -300,6 +300,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -639,7 +640,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>165.35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -668,11 +669,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>125.531501+55.372848</f>
-        <v>180.904349</v>
+        <f>134.585853+52.570328</f>
+        <v>187.156181</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -684,7 +685,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>29912.534107149997</v>
+        <v>40238.578914999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,11 +696,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>562.092+1278.717</f>
-        <v>1840.8090000000002</v>
+        <f>734.06+1325.881</f>
+        <v>2059.9409999999998</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -710,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,7 +720,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>28071.725107149996</v>
+        <v>38178.637914999999</v>
       </c>
     </row>
   </sheetData>
@@ -732,10 +733,10 @@
   <dimension ref="A1:AM464"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W32" sqref="W32"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +835,12 @@
       <c r="J3" s="5">
         <v>48</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>50.3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -898,8 +903,12 @@
       <c r="J4" s="5">
         <v>53.7</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5">
+        <v>58</v>
+      </c>
+      <c r="L4" s="5">
+        <v>60.1</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -935,46 +944,50 @@
       <c r="AM4" s="5"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:I5" si="0">+C3+C4</f>
         <v>60.3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>60.4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>73.099999999999994</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>82.7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>97.2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <f>+J3+J4</f>
         <v>101.7</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="K5" s="6">
+        <v>108.1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>110.4</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1034,8 +1047,12 @@
       <c r="J6" s="5">
         <v>172.2</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5">
+        <v>178.3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>181</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1098,8 +1115,12 @@
       <c r="J7" s="5">
         <v>207.2</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5">
+        <v>223</v>
+      </c>
+      <c r="L7" s="5">
+        <v>235.4</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1135,45 +1156,49 @@
       <c r="AM7" s="5"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <f>+C6+C7</f>
         <v>218</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <f t="shared" ref="D8:J8" si="1">+D6+D7</f>
         <v>218.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>239.10000000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>267.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>306.20000000000005</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>342.3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>365.4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>379.4</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="6">
+        <v>401.3</v>
+      </c>
+      <c r="L8" s="6">
+        <v>416.4</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -1234,8 +1259,12 @@
       <c r="J9" s="5">
         <v>7.04</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="5">
+        <v>6.27</v>
+      </c>
+      <c r="L9" s="5">
+        <v>7.87</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1298,8 +1327,12 @@
       <c r="J10" s="5">
         <v>1.67</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.73</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1335,38 +1368,42 @@
       <c r="AM10" s="5"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>2.72</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>3.03</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>3.14</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>3.42</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>2.94</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>3.08</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>3.58</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>4.21</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="K11" s="6">
+        <v>3.63</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4.53</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1445,12 +1482,20 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5">
+        <v>199.803</v>
+      </c>
+      <c r="H13" s="5">
+        <v>228.06899999999999</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="5">
+        <v>313.85199999999998</v>
+      </c>
+      <c r="L13" s="5">
+        <v>408.84199999999998</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1493,12 +1538,20 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5">
+        <v>43.16</v>
+      </c>
+      <c r="H14" s="5">
+        <v>53.115000000000002</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="5">
+        <v>78.509</v>
+      </c>
+      <c r="L14" s="5">
+        <v>90.784999999999997</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1541,12 +1594,20 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5">
+        <v>222.68199999999999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>253.125</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="5">
+        <v>358.63</v>
+      </c>
+      <c r="L15" s="5">
+        <v>464.78500000000003</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1589,12 +1650,20 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5">
+        <v>20.280999999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>28.059000000000001</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="5">
+        <v>33.731000000000002</v>
+      </c>
+      <c r="L16" s="5">
+        <v>34.841999999999999</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1637,12 +1706,20 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="6">
+        <v>242.96299999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>281.18400000000003</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="6">
+        <v>392.36099999999999</v>
+      </c>
+      <c r="L17" s="6">
+        <v>499.62700000000001</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1685,12 +1762,20 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5">
+        <v>27.616</v>
+      </c>
+      <c r="H18" s="5">
+        <v>29.501000000000001</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="5">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45.9</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1733,33 +1818,57 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="G19" s="5">
+        <f>+G17-G18</f>
+        <v>215.34699999999998</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="G19:N19" si="2">+H17-H18</f>
+        <v>251.68300000000002</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="2"/>
+        <v>355.27199999999999</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="2"/>
+        <v>453.72700000000003</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:T19" si="2">+P17-P18</f>
+        <f t="shared" ref="P19:T19" si="3">+P17-P18</f>
         <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>561.90200000000004</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>693.01800000000003</v>
       </c>
       <c r="U19" s="5">
@@ -1793,12 +1902,20 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5">
+        <v>437.03</v>
+      </c>
+      <c r="H20" s="5">
+        <v>142.77699999999999</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="5">
+        <v>191.27099999999999</v>
+      </c>
+      <c r="L20" s="5">
+        <v>196.61</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1841,12 +1958,20 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5">
+        <v>124.095</v>
+      </c>
+      <c r="H21" s="5">
+        <v>71.457999999999998</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="5">
+        <v>90.685000000000002</v>
+      </c>
+      <c r="L21" s="5">
+        <v>120.619</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1889,12 +2014,20 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="5">
+        <v>243.477</v>
+      </c>
+      <c r="H22" s="5">
+        <v>68.486999999999995</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="5">
+        <v>69.412999999999997</v>
+      </c>
+      <c r="L22" s="5">
+        <v>68.787000000000006</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1937,33 +2070,57 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:N23" si="4">+G19-SUM(G20:G22)</f>
+        <v>-589.255</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
+        <v>-31.038999999999959</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="4"/>
+        <v>3.9029999999999632</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="4"/>
+        <v>67.710999999999956</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
-        <f t="shared" ref="P23:T23" si="3">+P19-SUM(P20:P22)</f>
+        <f t="shared" ref="P23:T23" si="5">+P19-SUM(P20:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-172.16199999999992</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-140.16099999999994</v>
       </c>
       <c r="U23" s="5">
@@ -1997,12 +2154,20 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="5">
+        <v>14.554</v>
+      </c>
+      <c r="H24" s="5">
+        <v>20.724</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="K24" s="5">
+        <v>20.533999999999999</v>
+      </c>
+      <c r="L24" s="5">
+        <v>21.146999999999998</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -2045,33 +2210,57 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:N25" si="6">+G23+G24</f>
+        <v>-574.70100000000002</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>-10.314999999999959</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="6"/>
+        <v>24.436999999999962</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="6"/>
+        <v>88.857999999999947</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
-        <f t="shared" ref="P25:T25" si="4">+P23+P24</f>
+        <f t="shared" ref="P25:T25" si="7">+P23+P24</f>
         <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-157.92799999999991</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-87.022999999999939</v>
       </c>
       <c r="U25" s="5">
@@ -2105,12 +2294,20 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H26" s="5">
+        <v>-0.216</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="5">
+        <v>-1.7210000000000001</v>
+      </c>
+      <c r="L26" s="5">
+        <v>-0.439</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -2149,37 +2346,73 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:N27" si="8">+C25-C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="8"/>
+        <v>-575.06600000000003</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="8"/>
+        <v>-10.098999999999959</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="8"/>
+        <v>26.157999999999962</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="8"/>
+        <v>89.29699999999994</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5">
-        <f t="shared" ref="P27:T27" si="5">+P25-P26</f>
+        <f t="shared" ref="P27:T27" si="9">+P25-P26</f>
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-158.54999999999993</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-90.823999999999941</v>
       </c>
       <c r="U27" s="5">
@@ -2248,37 +2481,73 @@
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="C29" s="7" t="e">
+        <f t="shared" ref="C29:K29" si="10">+C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="10"/>
+        <v>-8.1871009673451596</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="10"/>
+        <v>-6.1435891905339497E-2</v>
+      </c>
+      <c r="I29" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="10"/>
+        <v>0.14370616101626507</v>
+      </c>
+      <c r="L29" s="7">
+        <f>+L27/L30</f>
+        <v>0.48154697195275337</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" ref="M29:N29" si="11">+M27/M30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7" t="e">
-        <f t="shared" ref="P29:T29" si="6">+P27/P30</f>
+        <f t="shared" ref="P29:T29" si="12">+P27/P30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.7693785231630073</v>
       </c>
       <c r="T29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.5357953924988363</v>
       </c>
       <c r="U29" s="7">
@@ -2312,12 +2581,20 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="5">
+        <v>70.240492000000003</v>
+      </c>
+      <c r="H30" s="5">
+        <v>164.38273599999999</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="K30" s="5">
+        <v>182.02420699999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>185.43777700000001</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2399,30 +2676,54 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="G32" s="8" t="e">
+        <f t="shared" ref="G32:J36" si="13">+G13/C13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="8">
+        <f>+K13/G13-1</f>
+        <v>0.57080724513645942</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" ref="L32:N36" si="14">+L13/H13-1</f>
+        <v>0.79262416198606567</v>
+      </c>
+      <c r="M32" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="8" t="e">
-        <f t="shared" ref="Q32:U36" si="7">+Q13/P13-1</f>
+        <f t="shared" ref="Q32:T36" si="15">+Q13/P13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.20874644861331193</v>
       </c>
       <c r="U32" s="8">
@@ -2456,34 +2757,58 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="G33" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" ref="K33:K36" si="16">+K14/G14-1</f>
+        <v>0.81902224281742364</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="14"/>
+        <v>0.70921585239574503</v>
+      </c>
+      <c r="M33" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>7.8364806563406164E-2</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" ref="U33:U36" si="8">+U14/T14-1</f>
+        <f t="shared" ref="U33:U36" si="17">+U14/T14-1</f>
         <v>6.5260051157604773</v>
       </c>
       <c r="V33" s="5"/>
@@ -2513,34 +2838,58 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="G34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="16"/>
+        <v>0.61050286956287447</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="14"/>
+        <v>0.83618765432098785</v>
+      </c>
+      <c r="M34" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.18655868144359178</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.63277850955973336</v>
       </c>
       <c r="V34" s="5"/>
@@ -2570,34 +2919,58 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="G35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="16"/>
+        <v>0.66318228884177333</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="14"/>
+        <v>0.24174061798353463</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.29654229341668303</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.55026170807921337</v>
       </c>
       <c r="V35" s="5"/>
@@ -2620,41 +2993,65 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="16"/>
+        <v>0.61490021114326043</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="14"/>
+        <v>0.77686852736997825</v>
+      </c>
+      <c r="M36" s="9" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="9" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.205981391958314</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.61711206934078233</v>
       </c>
       <c r="V36" s="5"/>
@@ -2680,37 +3077,73 @@
       <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="C37" s="8" t="e">
+        <f t="shared" ref="C37:N37" si="18">+C19/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="18"/>
+        <v>0.88633660269259096</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="18"/>
+        <v>0.89508293501763969</v>
+      </c>
+      <c r="I37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="18"/>
+        <v>0.90547225641692219</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="18"/>
+        <v>0.908131466073691</v>
+      </c>
+      <c r="M37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="8" t="e">
-        <f t="shared" ref="P37:U37" si="9">+P19/P17</f>
+        <f t="shared" ref="P37:T37" si="19">+P19/P17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.84280959530584176</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.86193159699463584</v>
       </c>
       <c r="U37" s="8">
@@ -2740,37 +3173,73 @@
       <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="C38" s="8" t="e">
+        <f t="shared" ref="C38:N38" si="20">+C23/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="20"/>
+        <v>-2.4252869778525947</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="20"/>
+        <v>-0.11038679298964364</v>
+      </c>
+      <c r="I38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="20"/>
+        <v>9.947471843531756E-3</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="20"/>
+        <v>0.13552310023277356</v>
+      </c>
+      <c r="M38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="8" t="e">
-        <f t="shared" ref="P38:U38" si="10">+P23/P17</f>
+        <f t="shared" ref="P38:T38" si="21">+P23/P17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.25822970117038963</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.17432331420881578</v>
       </c>
       <c r="U38" s="8">
@@ -2800,37 +3269,73 @@
       <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="C39" s="8" t="e">
+        <f t="shared" ref="C39:N39" si="22">+C26/C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="22"/>
+        <v>-6.3511286738669325E-4</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="22"/>
+        <v>2.0940378090160045E-2</v>
+      </c>
+      <c r="I39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="22"/>
+        <v>-7.042599337070847E-2</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="22"/>
+        <v>-4.9404668122172484E-3</v>
+      </c>
+      <c r="M39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="8" t="e">
-        <f t="shared" ref="P39:U39" si="11">+P26/P25</f>
+        <f t="shared" ref="P39:T39" si="23">+P26/P25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>-3.9385036219036548E-3</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>-4.3678108086368003E-2</v>
       </c>
       <c r="U39" s="8">
